--- a/statistiche.xlsx
+++ b/statistiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitozaccardo/Desktop/Conv_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89900BB5-CFFC-4D4B-9A15-383C0FD329F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB72A-AAF0-034B-B61A-721A797CE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6320" yWindow="-28300" windowWidth="39740" windowHeight="23800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42220" yWindow="-26980" windowWidth="22140" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="257">
+  <si>
+    <t>Ritorno Conv</t>
+  </si>
+  <si>
+    <t>Ritorno no Conv</t>
+  </si>
+  <si>
+    <t>Ritorno solo Conv</t>
+  </si>
+  <si>
+    <t>Volatilità Conv</t>
+  </si>
+  <si>
+    <t>Volatilità no Conv</t>
+  </si>
+  <si>
+    <t>Volatilità Solo Conv</t>
+  </si>
+  <si>
+    <t>Max DD Conv</t>
+  </si>
+  <si>
+    <t>Max DD No Conv</t>
+  </si>
+  <si>
+    <t>Max DD solo Conv</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio Conv</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio no Conv</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio solo Conv</t>
+  </si>
   <si>
     <t>10.56</t>
   </si>
@@ -42,223 +78,334 @@
     <t>11.55</t>
   </si>
   <si>
+    <t>15.13</t>
+  </si>
+  <si>
     <t>5.66</t>
   </si>
   <si>
     <t>6.61</t>
   </si>
   <si>
+    <t>3.72</t>
+  </si>
+  <si>
     <t>-3.63</t>
   </si>
   <si>
     <t>-2.55</t>
   </si>
   <si>
+    <t>-0.23</t>
+  </si>
+  <si>
     <t>1.60</t>
   </si>
   <si>
     <t>2.04</t>
   </si>
   <si>
+    <t>4.06</t>
+  </si>
+  <si>
     <t>3.88</t>
   </si>
   <si>
     <t>4.07</t>
   </si>
   <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>2.90</t>
   </si>
   <si>
     <t>2.71</t>
   </si>
   <si>
+    <t>4.28</t>
+  </si>
+  <si>
     <t>-0.80</t>
   </si>
   <si>
     <t>-0.97</t>
   </si>
   <si>
+    <t>-2.84</t>
+  </si>
+  <si>
     <t>1.43</t>
   </si>
   <si>
     <t>1.41</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
     <t>13.07</t>
   </si>
   <si>
     <t>12.00</t>
   </si>
   <si>
+    <t>7.27</t>
+  </si>
+  <si>
     <t>4.62</t>
   </si>
   <si>
     <t>4.63</t>
   </si>
   <si>
+    <t>5.43</t>
+  </si>
+  <si>
     <t>-1.16</t>
   </si>
   <si>
     <t>-1.27</t>
   </si>
   <si>
+    <t>-3.41</t>
+  </si>
+  <si>
     <t>2.82</t>
   </si>
   <si>
     <t>2.60</t>
   </si>
   <si>
+    <t>1.34</t>
+  </si>
+  <si>
     <t>3.78</t>
   </si>
   <si>
     <t>4.79</t>
   </si>
   <si>
+    <t>9.05</t>
+  </si>
+  <si>
     <t>3.74</t>
   </si>
   <si>
     <t>3.91</t>
   </si>
   <si>
+    <t>4.38</t>
+  </si>
+  <si>
     <t>-2.99</t>
   </si>
   <si>
     <t>-2.61</t>
   </si>
   <si>
+    <t>-1.84</t>
+  </si>
+  <si>
     <t>0.97</t>
   </si>
   <si>
     <t>1.28</t>
   </si>
   <si>
+    <t>2.07</t>
+  </si>
+  <si>
     <t>-0.38</t>
   </si>
   <si>
     <t>0.83</t>
   </si>
   <si>
+    <t>5.87</t>
+  </si>
+  <si>
     <t>4.55</t>
   </si>
   <si>
     <t>4.21</t>
   </si>
   <si>
+    <t>7.02</t>
+  </si>
+  <si>
     <t>-2.98</t>
   </si>
   <si>
     <t>-3.11</t>
   </si>
   <si>
+    <t>-4.07</t>
+  </si>
+  <si>
     <t>-0.09</t>
   </si>
   <si>
     <t>0.18</t>
   </si>
   <si>
+    <t>0.84</t>
+  </si>
+  <si>
     <t>-13.61</t>
   </si>
   <si>
     <t>-16.42</t>
   </si>
   <si>
+    <t>-29.41</t>
+  </si>
+  <si>
     <t>10.47</t>
   </si>
   <si>
     <t>9.15</t>
   </si>
   <si>
+    <t>21.55</t>
+  </si>
+  <si>
     <t>-18.94</t>
   </si>
   <si>
     <t>-21.81</t>
   </si>
   <si>
+    <t>-37.98</t>
+  </si>
+  <si>
     <t>-1.49</t>
   </si>
   <si>
     <t>-1.57</t>
   </si>
   <si>
+    <t>-1.37</t>
+  </si>
+  <si>
     <t>16.92</t>
   </si>
   <si>
     <t>21.45</t>
   </si>
   <si>
+    <t>39.59</t>
+  </si>
+  <si>
     <t>9.11</t>
   </si>
   <si>
     <t>9.18</t>
   </si>
   <si>
+    <t>9.32</t>
+  </si>
+  <si>
     <t>-22.58</t>
   </si>
   <si>
     <t>-24.72</t>
   </si>
   <si>
+    <t>-35.46</t>
+  </si>
+  <si>
     <t>1.84</t>
   </si>
   <si>
     <t>2.35</t>
   </si>
   <si>
+    <t>4.25</t>
+  </si>
+  <si>
     <t>11.04</t>
   </si>
   <si>
     <t>11.48</t>
   </si>
   <si>
+    <t>12.38</t>
+  </si>
+  <si>
     <t>5.64</t>
   </si>
   <si>
     <t>5.19</t>
   </si>
   <si>
+    <t>10.11</t>
+  </si>
+  <si>
     <t>-5.82</t>
   </si>
   <si>
     <t>-5.60</t>
   </si>
   <si>
+    <t>-10.69</t>
+  </si>
+  <si>
     <t>2.13</t>
   </si>
   <si>
+    <t>1.23</t>
+  </si>
+  <si>
     <t>0.87</t>
   </si>
   <si>
     <t>-0.81</t>
   </si>
   <si>
+    <t>-8.16</t>
+  </si>
+  <si>
     <t>6.43</t>
   </si>
   <si>
     <t>6.07</t>
   </si>
   <si>
+    <t>10.32</t>
+  </si>
+  <si>
     <t>-6.11</t>
   </si>
   <si>
     <t>-7.21</t>
   </si>
   <si>
+    <t>-13.73</t>
+  </si>
+  <si>
     <t>0.14</t>
   </si>
   <si>
     <t>-0.13</t>
   </si>
   <si>
+    <t>-0.79</t>
+  </si>
+  <si>
     <t>7.57</t>
   </si>
   <si>
     <t>7.94</t>
   </si>
   <si>
+    <t>7.96</t>
+  </si>
+  <si>
     <t>4.54</t>
   </si>
   <si>
-    <t>4.06</t>
+    <t>7.45</t>
   </si>
   <si>
     <t>-1.34</t>
@@ -267,22 +414,31 @@
     <t>-1.90</t>
   </si>
   <si>
+    <t>-8.08</t>
+  </si>
+  <si>
     <t>1.86</t>
   </si>
   <si>
     <t>1.75</t>
   </si>
   <si>
+    <t>1.07</t>
+  </si>
+  <si>
     <t>10.42</t>
   </si>
   <si>
     <t>11.46</t>
   </si>
   <si>
+    <t>15.33</t>
+  </si>
+  <si>
     <t>4.31</t>
   </si>
   <si>
-    <t>4.25</t>
+    <t>5.29</t>
   </si>
   <si>
     <t>-1.77</t>
@@ -291,6 +447,9 @@
     <t>-1.83</t>
   </si>
   <si>
+    <t>-1.85</t>
+  </si>
+  <si>
     <t>2.45</t>
   </si>
   <si>
@@ -303,256 +462,349 @@
     <t>11.58</t>
   </si>
   <si>
+    <t>5.41</t>
+  </si>
+  <si>
     <t>2.78</t>
   </si>
   <si>
     <t>2.58</t>
   </si>
   <si>
+    <t>5.28</t>
+  </si>
+  <si>
     <t>-0.29</t>
   </si>
   <si>
     <t>-0.01</t>
   </si>
   <si>
+    <t>-1.95</t>
+  </si>
+  <si>
     <t>4.93</t>
   </si>
   <si>
     <t>4.16</t>
   </si>
   <si>
+    <t>1.02</t>
+  </si>
+  <si>
     <t>3.36</t>
   </si>
   <si>
     <t>2.63</t>
   </si>
   <si>
+    <t>-0.20</t>
+  </si>
+  <si>
     <t>9.22</t>
   </si>
   <si>
     <t>9.67</t>
   </si>
   <si>
+    <t>7.90</t>
+  </si>
+  <si>
     <t>-6.14</t>
   </si>
   <si>
     <t>-6.47</t>
   </si>
   <si>
+    <t>-8.07</t>
+  </si>
+  <si>
     <t>0.35</t>
   </si>
   <si>
     <t>0.28</t>
   </si>
   <si>
+    <t>-0.03</t>
+  </si>
+  <si>
     <t>9.04</t>
   </si>
   <si>
+    <t>8.86</t>
+  </si>
+  <si>
     <t>4.85</t>
   </si>
   <si>
+    <t>7.31</t>
+  </si>
+  <si>
     <t>-5.07</t>
   </si>
   <si>
+    <t>-11.05</t>
+  </si>
+  <si>
     <t>1.99</t>
   </si>
   <si>
     <t>1.88</t>
   </si>
   <si>
+    <t>1.21</t>
+  </si>
+  <si>
     <t>4.30</t>
   </si>
   <si>
+    <t>6.50</t>
+  </si>
+  <si>
     <t>3.27</t>
   </si>
   <si>
     <t>3.60</t>
   </si>
   <si>
+    <t>2.91</t>
+  </si>
+  <si>
     <t>-1.70</t>
   </si>
   <si>
     <t>-1.01</t>
   </si>
   <si>
+    <t>-1.51</t>
+  </si>
+  <si>
     <t>1.20</t>
   </si>
   <si>
     <t>1.48</t>
   </si>
   <si>
+    <t>2.23</t>
+  </si>
+  <si>
     <t>-1.97</t>
   </si>
   <si>
     <t>-2.92</t>
   </si>
   <si>
+    <t>-6.93</t>
+  </si>
+  <si>
     <t>5.97</t>
   </si>
   <si>
     <t>5.89</t>
   </si>
   <si>
+    <t>7.21</t>
+  </si>
+  <si>
     <t>-5.49</t>
   </si>
   <si>
     <t>-5.86</t>
   </si>
   <si>
+    <t>-7.68</t>
+  </si>
+  <si>
     <t>-0.33</t>
   </si>
   <si>
     <t>-0.49</t>
   </si>
   <si>
+    <t>-0.96</t>
+  </si>
+  <si>
     <t>11.70</t>
   </si>
   <si>
     <t>11.38</t>
   </si>
   <si>
+    <t>8.92</t>
+  </si>
+  <si>
     <t>5.80</t>
   </si>
   <si>
     <t>5.60</t>
   </si>
   <si>
+    <t>7.33</t>
+  </si>
+  <si>
     <t>-2.38</t>
   </si>
   <si>
     <t>-2.48</t>
   </si>
   <si>
+    <t>-3.07</t>
+  </si>
+  <si>
     <t>2.09</t>
   </si>
   <si>
     <t>1.96</t>
   </si>
   <si>
+    <t>1.22</t>
+  </si>
+  <si>
     <t>5.00</t>
   </si>
   <si>
     <t>9.80</t>
   </si>
   <si>
+    <t>29.09</t>
+  </si>
+  <si>
     <t>13.66</t>
   </si>
   <si>
     <t>12.19</t>
   </si>
   <si>
+    <t>19.74</t>
+  </si>
+  <si>
     <t>-10.36</t>
   </si>
   <si>
     <t>-11.09</t>
   </si>
   <si>
+    <t>-13.65</t>
+  </si>
+  <si>
     <t>0.41</t>
   </si>
   <si>
     <t>0.72</t>
   </si>
   <si>
+    <t>1.47</t>
+  </si>
+  <si>
     <t>14.52</t>
   </si>
   <si>
     <t>11.71</t>
   </si>
   <si>
-    <t>4.38</t>
+    <t>0.70</t>
   </si>
   <si>
     <t>4.73</t>
   </si>
   <si>
+    <t>7.56</t>
+  </si>
+  <si>
     <t>-1.43</t>
   </si>
   <si>
     <t>-1.61</t>
   </si>
   <si>
+    <t>-3.45</t>
+  </si>
+  <si>
     <t>3.07</t>
   </si>
   <si>
     <t>2.68</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>-8.46</t>
   </si>
   <si>
     <t>-9.98</t>
   </si>
   <si>
+    <t>-13.93</t>
+  </si>
+  <si>
     <t>11.72</t>
   </si>
   <si>
     <t>11.85</t>
   </si>
   <si>
+    <t>11.95</t>
+  </si>
+  <si>
     <t>-10.68</t>
   </si>
   <si>
     <t>-13.13</t>
   </si>
   <si>
+    <t>-23.30</t>
+  </si>
+  <si>
     <t>-0.71</t>
   </si>
   <si>
     <t>-0.85</t>
   </si>
   <si>
+    <t>-1.17</t>
+  </si>
+  <si>
     <t>3.57</t>
   </si>
   <si>
     <t>3.23</t>
   </si>
   <si>
+    <t>1.77</t>
+  </si>
+  <si>
     <t>5.51</t>
   </si>
   <si>
     <t>4.59</t>
   </si>
   <si>
+    <t>9.17</t>
+  </si>
+  <si>
     <t>-8.19</t>
   </si>
   <si>
     <t>-10.13</t>
   </si>
   <si>
+    <t>-19.42</t>
+  </si>
+  <si>
     <t>0.78</t>
   </si>
   <si>
     <t>0.59</t>
   </si>
   <si>
-    <t>Ritorno con Conv. Bond</t>
-  </si>
-  <si>
-    <t>Ritorno senza Conv. Bond</t>
-  </si>
-  <si>
-    <t>Volatilità con Conv. Bond</t>
-  </si>
-  <si>
-    <t>Volatilità senza Conv. Bond</t>
-  </si>
-  <si>
-    <t>Max DD con Conv. Bond</t>
-  </si>
-  <si>
-    <t>Max DD senza Conv. Bond</t>
-  </si>
-  <si>
-    <t>Sharpe Ratio con Conv.Bond</t>
-  </si>
-  <si>
-    <t>Sharpe Ratio senza Conv. Bond</t>
-  </si>
-  <si>
-    <t>Differenza Draw Down</t>
-  </si>
-  <si>
-    <t>Anno</t>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Differenza di Draw Down</t>
   </si>
 </sst>
 </file>
@@ -930,15 +1182,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+      <selection activeCell="B8" sqref="B8:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1008,546 +1274,818 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="R2" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="S2" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="T2" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="U2" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="V2" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="R3" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="S3" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="V3" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="R4" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="S4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="U4" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="R5" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="S5" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="T5" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="V5" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="Q6" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="R6" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="V6" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="R7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="T7" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="U7" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="R8" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="S8" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="T8" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="U8" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="V8" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" t="s">
+        <v>203</v>
+      </c>
+      <c r="S9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T9" t="s">
+        <v>226</v>
+      </c>
+      <c r="U9" t="s">
+        <v>238</v>
+      </c>
+      <c r="V9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" t="s">
+        <v>216</v>
+      </c>
+      <c r="T10" t="s">
+        <v>227</v>
+      </c>
+      <c r="U10" t="s">
+        <v>239</v>
+      </c>
+      <c r="V10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" t="s">
         <v>170</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="P11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" t="s">
+        <v>205</v>
+      </c>
+      <c r="S11" t="s">
+        <v>217</v>
+      </c>
+      <c r="T11" t="s">
+        <v>228</v>
+      </c>
+      <c r="U11" t="s">
+        <v>240</v>
+      </c>
+      <c r="V11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>194</v>
+      </c>
+      <c r="R12" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" t="s">
+        <v>229</v>
+      </c>
+      <c r="U12" t="s">
+        <v>241</v>
+      </c>
+      <c r="V12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" t="s">
-        <v>130</v>
-      </c>
-      <c r="S9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" t="s">
-        <v>146</v>
-      </c>
-      <c r="U9" t="s">
-        <v>154</v>
-      </c>
-      <c r="V9" t="s">
-        <v>162</v>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>195</v>
+      </c>
+      <c r="R13" t="s">
+        <v>207</v>
+      </c>
+      <c r="S13" t="s">
+        <v>219</v>
+      </c>
+      <c r="T13" t="s">
+        <v>230</v>
+      </c>
+      <c r="U13" t="s">
+        <v>242</v>
+      </c>
+      <c r="V13" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1556,24 +2094,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3621B2-AC42-C740-B97B-1B760026D12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AD160-E8AD-F14B-9082-4453B0634A45}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/statistiche.xlsx
+++ b/statistiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitozaccardo/Desktop/Conv_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB72A-AAF0-034B-B61A-721A797CE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589360C1-73C8-764A-8E3F-38364613894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42220" yWindow="-26980" windowWidth="22140" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="256">
   <si>
     <t>Ritorno Conv</t>
   </si>
@@ -72,19 +72,19 @@
     <t>Sharpe Ratio solo Conv</t>
   </si>
   <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>11.55</t>
-  </si>
-  <si>
-    <t>15.13</t>
+    <t>6.61</t>
   </si>
   <si>
     <t>5.66</t>
   </si>
   <si>
-    <t>6.61</t>
+    <t>16.95</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>9.92</t>
   </si>
   <si>
     <t>3.72</t>
@@ -108,19 +108,19 @@
     <t>4.06</t>
   </si>
   <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>4.00</t>
+    <t>2.71</t>
   </si>
   <si>
     <t>2.90</t>
   </si>
   <si>
-    <t>2.71</t>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.00</t>
   </si>
   <si>
     <t>4.28</t>
@@ -144,19 +144,19 @@
     <t>0.93</t>
   </si>
   <si>
-    <t>13.07</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>7.27</t>
+    <t>4.63</t>
   </si>
   <si>
     <t>4.62</t>
   </si>
   <si>
-    <t>4.63</t>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>12.99</t>
   </si>
   <si>
     <t>5.43</t>
@@ -180,19 +180,19 @@
     <t>1.34</t>
   </si>
   <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>9.05</t>
+    <t>3.91</t>
   </si>
   <si>
     <t>3.74</t>
   </si>
   <si>
-    <t>3.91</t>
+    <t>12.93</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>6.07</t>
   </si>
   <si>
     <t>4.38</t>
@@ -216,19 +216,19 @@
     <t>2.07</t>
   </si>
   <si>
-    <t>-0.38</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>5.87</t>
+    <t>4.21</t>
   </si>
   <si>
     <t>4.55</t>
   </si>
   <si>
-    <t>4.21</t>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>2.19</t>
   </si>
   <si>
     <t>7.02</t>
@@ -252,19 +252,19 @@
     <t>0.84</t>
   </si>
   <si>
-    <t>-13.61</t>
-  </si>
-  <si>
-    <t>-16.42</t>
-  </si>
-  <si>
-    <t>-29.41</t>
+    <t>9.15</t>
   </si>
   <si>
     <t>10.47</t>
   </si>
   <si>
-    <t>9.15</t>
+    <t>-32.48</t>
+  </si>
+  <si>
+    <t>-16.44</t>
+  </si>
+  <si>
+    <t>-19.31</t>
   </si>
   <si>
     <t>21.55</t>
@@ -288,19 +288,19 @@
     <t>-1.37</t>
   </si>
   <si>
-    <t>16.92</t>
-  </si>
-  <si>
-    <t>21.45</t>
-  </si>
-  <si>
-    <t>39.59</t>
+    <t>9.18</t>
   </si>
   <si>
     <t>9.11</t>
   </si>
   <si>
-    <t>9.18</t>
+    <t>40.93</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>21.32</t>
   </si>
   <si>
     <t>9.32</t>
@@ -324,151 +324,148 @@
     <t>4.25</t>
   </si>
   <si>
-    <t>11.04</t>
-  </si>
-  <si>
-    <t>11.48</t>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>-5.82</t>
+  </si>
+  <si>
+    <t>-5.60</t>
+  </si>
+  <si>
+    <t>-10.69</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>-6.74</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>-6.11</t>
+  </si>
+  <si>
+    <t>-7.21</t>
+  </si>
+  <si>
+    <t>-13.73</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>7.45</t>
+  </si>
+  <si>
+    <t>-1.34</t>
+  </si>
+  <si>
+    <t>-1.90</t>
+  </si>
+  <si>
+    <t>-8.08</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>18.34</t>
+  </si>
+  <si>
+    <t>11.44</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>-1.77</t>
+  </si>
+  <si>
+    <t>-1.83</t>
+  </si>
+  <si>
+    <t>-1.85</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>6.25</t>
   </si>
   <si>
     <t>12.38</t>
   </si>
   <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>10.11</t>
-  </si>
-  <si>
-    <t>-5.82</t>
-  </si>
-  <si>
-    <t>-5.60</t>
-  </si>
-  <si>
-    <t>-10.69</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>-0.81</t>
-  </si>
-  <si>
-    <t>-8.16</t>
-  </si>
-  <si>
-    <t>6.43</t>
-  </si>
-  <si>
-    <t>6.07</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>-6.11</t>
-  </si>
-  <si>
-    <t>-7.21</t>
-  </si>
-  <si>
-    <t>-13.73</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>7.57</t>
-  </si>
-  <si>
-    <t>7.94</t>
-  </si>
-  <si>
-    <t>7.96</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>-1.34</t>
-  </si>
-  <si>
-    <t>-1.90</t>
-  </si>
-  <si>
-    <t>-8.08</t>
-  </si>
-  <si>
-    <t>1.86</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>10.42</t>
-  </si>
-  <si>
-    <t>11.46</t>
-  </si>
-  <si>
-    <t>15.33</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>-1.77</t>
-  </si>
-  <si>
-    <t>-1.83</t>
-  </si>
-  <si>
-    <t>-1.85</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>12.71</t>
-  </si>
-  <si>
-    <t>11.58</t>
-  </si>
-  <si>
-    <t>5.41</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>2.58</t>
+    <t>11.57</t>
   </si>
   <si>
     <t>5.28</t>
@@ -492,19 +489,16 @@
     <t>1.02</t>
   </si>
   <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>-0.20</t>
+    <t>9.67</t>
   </si>
   <si>
     <t>9.22</t>
   </si>
   <si>
-    <t>9.67</t>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>6.55</t>
   </si>
   <si>
     <t>7.90</t>
@@ -528,15 +522,18 @@
     <t>-0.03</t>
   </si>
   <si>
-    <t>9.04</t>
-  </si>
-  <si>
-    <t>8.86</t>
-  </si>
-  <si>
     <t>4.85</t>
   </si>
   <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
     <t>7.31</t>
   </si>
   <si>
@@ -555,16 +552,19 @@
     <t>1.21</t>
   </si>
   <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>6.50</t>
+    <t>3.60</t>
   </si>
   <si>
     <t>3.27</t>
   </si>
   <si>
-    <t>3.60</t>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.70</t>
   </si>
   <si>
     <t>2.91</t>
@@ -588,19 +588,19 @@
     <t>2.23</t>
   </si>
   <si>
-    <t>-1.97</t>
-  </si>
-  <si>
-    <t>-2.92</t>
-  </si>
-  <si>
-    <t>-6.93</t>
+    <t>5.89</t>
   </si>
   <si>
     <t>5.97</t>
   </si>
   <si>
-    <t>5.89</t>
+    <t>-4.43</t>
+  </si>
+  <si>
+    <t>-1.36</t>
+  </si>
+  <si>
+    <t>-1.92</t>
   </si>
   <si>
     <t>7.21</t>
@@ -624,19 +624,19 @@
     <t>-0.96</t>
   </si>
   <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>11.38</t>
-  </si>
-  <si>
-    <t>8.92</t>
+    <t>5.60</t>
   </si>
   <si>
     <t>5.80</t>
   </si>
   <si>
-    <t>5.60</t>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>16.17</t>
+  </si>
+  <si>
+    <t>16.12</t>
   </si>
   <si>
     <t>7.33</t>
@@ -660,19 +660,19 @@
     <t>1.22</t>
   </si>
   <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>29.09</t>
+    <t>12.19</t>
   </si>
   <si>
     <t>13.66</t>
   </si>
   <si>
-    <t>12.19</t>
+    <t>31.77</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>11.02</t>
   </si>
   <si>
     <t>19.74</t>
@@ -696,18 +696,15 @@
     <t>1.47</t>
   </si>
   <si>
-    <t>14.52</t>
-  </si>
-  <si>
-    <t>11.71</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
     <t>4.73</t>
   </si>
   <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>11.77</t>
+  </si>
+  <si>
     <t>7.56</t>
   </si>
   <si>
@@ -729,19 +726,19 @@
     <t>0.09</t>
   </si>
   <si>
-    <t>-8.46</t>
-  </si>
-  <si>
-    <t>-9.98</t>
-  </si>
-  <si>
-    <t>-13.93</t>
+    <t>11.85</t>
   </si>
   <si>
     <t>11.72</t>
   </si>
   <si>
-    <t>11.85</t>
+    <t>-18.90</t>
+  </si>
+  <si>
+    <t>-10.49</t>
+  </si>
+  <si>
+    <t>-12.63</t>
   </si>
   <si>
     <t>11.95</t>
@@ -765,22 +762,22 @@
     <t>-1.17</t>
   </si>
   <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>5.51</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>9.17</t>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>10.26</t>
   </si>
   <si>
     <t>-8.19</t>
@@ -801,7 +798,7 @@
     <t>0.19</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Differenza di Draw Down</t>
@@ -876,7 +873,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,20 +1190,6 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1301,25 +1286,25 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
         <v>184</v>
@@ -1334,10 +1319,10 @@
         <v>220</v>
       </c>
       <c r="U2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1369,25 +1354,25 @@
         <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q3" t="s">
         <v>185</v>
@@ -1399,13 +1384,13 @@
         <v>209</v>
       </c>
       <c r="T3" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1437,22 +1422,22 @@
         <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
         <v>174</v>
@@ -1467,13 +1452,13 @@
         <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1505,22 +1490,22 @@
         <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P5" t="s">
         <v>175</v>
@@ -1535,13 +1520,13 @@
         <v>211</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="U5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1573,22 +1558,22 @@
         <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
         <v>176</v>
@@ -1603,13 +1588,13 @@
         <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1641,22 +1626,22 @@
         <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P7" t="s">
         <v>177</v>
@@ -1671,13 +1656,13 @@
         <v>213</v>
       </c>
       <c r="T7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1709,22 +1694,22 @@
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P8" t="s">
         <v>178</v>
@@ -1739,13 +1724,13 @@
         <v>214</v>
       </c>
       <c r="T8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1777,19 +1762,19 @@
         <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O9" t="s">
         <v>103</v>
@@ -1807,13 +1792,13 @@
         <v>215</v>
       </c>
       <c r="T9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1845,22 +1830,22 @@
         <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P10" t="s">
         <v>180</v>
@@ -1875,13 +1860,13 @@
         <v>216</v>
       </c>
       <c r="T10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1913,22 +1898,22 @@
         <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P11" t="s">
         <v>181</v>
@@ -1943,13 +1928,13 @@
         <v>217</v>
       </c>
       <c r="T11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1981,22 +1966,22 @@
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P12" t="s">
         <v>182</v>
@@ -2011,13 +1996,13 @@
         <v>218</v>
       </c>
       <c r="T12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -2049,22 +2034,22 @@
         <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P13" t="s">
         <v>183</v>
@@ -2079,13 +2064,13 @@
         <v>219</v>
       </c>
       <c r="T13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2094,21 +2079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AD160-E8AD-F14B-9082-4453B0634A45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF15046-037D-8E45-A296-6991857EDCF6}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" t="s">
         <v>255</v>
-      </c>
-      <c r="B1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/statistiche.xlsx
+++ b/statistiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitozaccardo/Desktop/Conv_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589360C1-73C8-764A-8E3F-38364613894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EAB5B-DB41-DA4C-AE2C-2269D8631A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
   <si>
     <t>Ritorno Conv</t>
   </si>
@@ -99,703 +86,700 @@
     <t>-0.23</t>
   </si>
   <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>2.04</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>-0.80</t>
+  </si>
+  <si>
+    <t>-0.97</t>
+  </si>
+  <si>
+    <t>-2.84</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>-1.16</t>
+  </si>
+  <si>
+    <t>-1.27</t>
+  </si>
+  <si>
+    <t>-3.41</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>12.93</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>-2.99</t>
+  </si>
+  <si>
+    <t>-2.61</t>
+  </si>
+  <si>
+    <t>-1.84</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>-2.98</t>
+  </si>
+  <si>
+    <t>-3.11</t>
+  </si>
+  <si>
+    <t>-4.07</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>-32.48</t>
+  </si>
+  <si>
+    <t>-16.44</t>
+  </si>
+  <si>
+    <t>-19.31</t>
+  </si>
+  <si>
+    <t>21.55</t>
+  </si>
+  <si>
+    <t>-18.94</t>
+  </si>
+  <si>
+    <t>-21.81</t>
+  </si>
+  <si>
+    <t>-37.98</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>-0.56</t>
+  </si>
+  <si>
+    <t>-1.51</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>40.93</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>21.32</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>-22.58</t>
+  </si>
+  <si>
+    <t>-24.72</t>
+  </si>
+  <si>
+    <t>-35.46</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>-5.82</t>
+  </si>
+  <si>
+    <t>-5.60</t>
+  </si>
+  <si>
+    <t>-10.69</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>-6.74</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>-6.11</t>
+  </si>
+  <si>
+    <t>-7.21</t>
+  </si>
+  <si>
+    <t>-13.73</t>
+  </si>
+  <si>
+    <t>-10.53</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>-0.65</t>
   </si>
   <si>
     <t>4.06</t>
   </si>
   <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>5.96</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>-0.80</t>
-  </si>
-  <si>
-    <t>-0.97</t>
-  </si>
-  <si>
-    <t>-2.84</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>4.62</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>14.55</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>-1.16</t>
-  </si>
-  <si>
-    <t>-1.27</t>
-  </si>
-  <si>
-    <t>-3.41</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>12.93</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>6.07</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>-2.99</t>
-  </si>
-  <si>
-    <t>-2.61</t>
-  </si>
-  <si>
-    <t>-1.84</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>-2.98</t>
-  </si>
-  <si>
-    <t>-3.11</t>
-  </si>
-  <si>
-    <t>-4.07</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>10.47</t>
-  </si>
-  <si>
-    <t>-32.48</t>
-  </si>
-  <si>
-    <t>-16.44</t>
-  </si>
-  <si>
-    <t>-19.31</t>
-  </si>
-  <si>
-    <t>21.55</t>
-  </si>
-  <si>
-    <t>-18.94</t>
-  </si>
-  <si>
-    <t>-21.81</t>
-  </si>
-  <si>
-    <t>-37.98</t>
-  </si>
-  <si>
-    <t>-1.49</t>
-  </si>
-  <si>
-    <t>-1.57</t>
-  </si>
-  <si>
-    <t>-1.37</t>
-  </si>
-  <si>
-    <t>9.18</t>
-  </si>
-  <si>
-    <t>9.11</t>
-  </si>
-  <si>
-    <t>40.93</t>
-  </si>
-  <si>
-    <t>16.56</t>
-  </si>
-  <si>
-    <t>21.32</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>-22.58</t>
-  </si>
-  <si>
-    <t>-24.72</t>
-  </si>
-  <si>
-    <t>-35.46</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>2.35</t>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>7.45</t>
+  </si>
+  <si>
+    <t>-1.34</t>
+  </si>
+  <si>
+    <t>-1.90</t>
+  </si>
+  <si>
+    <t>-8.08</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>4.25</t>
   </si>
   <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>10.94</t>
-  </si>
-  <si>
-    <t>10.11</t>
-  </si>
-  <si>
-    <t>-5.82</t>
-  </si>
-  <si>
-    <t>-5.60</t>
-  </si>
-  <si>
-    <t>-10.69</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>6.43</t>
-  </si>
-  <si>
-    <t>-6.74</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-0.61</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>-6.11</t>
-  </si>
-  <si>
-    <t>-7.21</t>
-  </si>
-  <si>
-    <t>-13.73</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>13.76</t>
-  </si>
-  <si>
-    <t>10.57</t>
-  </si>
-  <si>
-    <t>11.56</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>-1.34</t>
-  </si>
-  <si>
-    <t>-1.90</t>
-  </si>
-  <si>
-    <t>-8.08</t>
-  </si>
-  <si>
-    <t>1.86</t>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>18.34</t>
+  </si>
+  <si>
+    <t>11.44</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>-1.77</t>
+  </si>
+  <si>
+    <t>-1.83</t>
+  </si>
+  <si>
+    <t>-1.85</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>11.57</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-1.95</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>-6.14</t>
+  </si>
+  <si>
+    <t>-6.47</t>
+  </si>
+  <si>
+    <t>-8.07</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>-5.07</t>
+  </si>
+  <si>
+    <t>-11.05</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>-1.70</t>
+  </si>
+  <si>
+    <t>-1.01</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>-4.43</t>
+  </si>
+  <si>
+    <t>-1.36</t>
+  </si>
+  <si>
+    <t>-1.92</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>-5.49</t>
+  </si>
+  <si>
+    <t>-5.86</t>
+  </si>
+  <si>
+    <t>-7.68</t>
+  </si>
+  <si>
+    <t>-3.10</t>
+  </si>
+  <si>
+    <t>-4.34</t>
+  </si>
+  <si>
+    <t>-0.62</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>16.17</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>-2.38</t>
+  </si>
+  <si>
+    <t>-2.48</t>
+  </si>
+  <si>
+    <t>-3.07</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>31.77</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>19.74</t>
+  </si>
+  <si>
+    <t>-10.36</t>
+  </si>
+  <si>
+    <t>-11.09</t>
+  </si>
+  <si>
+    <t>-13.65</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>11.77</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>-1.43</t>
+  </si>
+  <si>
+    <t>-1.61</t>
+  </si>
+  <si>
+    <t>-3.45</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>11.72</t>
+  </si>
+  <si>
+    <t>-18.90</t>
+  </si>
+  <si>
+    <t>-10.49</t>
+  </si>
+  <si>
+    <t>-12.63</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>-10.68</t>
+  </si>
+  <si>
+    <t>-13.13</t>
+  </si>
+  <si>
+    <t>-23.30</t>
+  </si>
+  <si>
+    <t>-0.93</t>
+  </si>
+  <si>
+    <t>-1.13</t>
+  </si>
+  <si>
+    <t>-1.58</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>-8.19</t>
+  </si>
+  <si>
+    <t>-10.13</t>
+  </si>
+  <si>
+    <t>-19.42</t>
   </si>
   <si>
     <t>1.75</t>
   </si>
   <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>18.34</t>
-  </si>
-  <si>
-    <t>11.44</t>
-  </si>
-  <si>
-    <t>12.84</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>-1.77</t>
-  </si>
-  <si>
-    <t>-1.83</t>
-  </si>
-  <si>
-    <t>-1.85</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>12.38</t>
-  </si>
-  <si>
-    <t>11.57</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-1.95</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>4.16</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>9.22</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>-6.14</t>
-  </si>
-  <si>
-    <t>-6.47</t>
-  </si>
-  <si>
-    <t>-8.07</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>6.49</t>
-  </si>
-  <si>
-    <t>6.16</t>
-  </si>
-  <si>
-    <t>7.31</t>
-  </si>
-  <si>
-    <t>-5.07</t>
-  </si>
-  <si>
-    <t>-11.05</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>-1.70</t>
-  </si>
-  <si>
-    <t>-1.01</t>
-  </si>
-  <si>
-    <t>-1.51</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>5.89</t>
-  </si>
-  <si>
-    <t>5.97</t>
-  </si>
-  <si>
-    <t>-4.43</t>
-  </si>
-  <si>
-    <t>-1.36</t>
-  </si>
-  <si>
-    <t>-1.92</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>-5.49</t>
-  </si>
-  <si>
-    <t>-5.86</t>
-  </si>
-  <si>
-    <t>-7.68</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.96</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>14.45</t>
-  </si>
-  <si>
-    <t>16.17</t>
-  </si>
-  <si>
-    <t>16.12</t>
-  </si>
-  <si>
-    <t>7.33</t>
-  </si>
-  <si>
-    <t>-2.38</t>
-  </si>
-  <si>
-    <t>-2.48</t>
-  </si>
-  <si>
-    <t>-3.07</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>13.66</t>
-  </si>
-  <si>
-    <t>31.77</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>11.02</t>
-  </si>
-  <si>
-    <t>19.74</t>
-  </si>
-  <si>
-    <t>-10.36</t>
-  </si>
-  <si>
-    <t>-11.09</t>
-  </si>
-  <si>
-    <t>-13.65</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
-    <t>14.21</t>
-  </si>
-  <si>
-    <t>11.77</t>
-  </si>
-  <si>
-    <t>7.56</t>
-  </si>
-  <si>
-    <t>-1.43</t>
-  </si>
-  <si>
-    <t>-1.61</t>
-  </si>
-  <si>
-    <t>-3.45</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>11.85</t>
-  </si>
-  <si>
-    <t>11.72</t>
-  </si>
-  <si>
-    <t>-18.90</t>
-  </si>
-  <si>
-    <t>-10.49</t>
-  </si>
-  <si>
-    <t>-12.63</t>
-  </si>
-  <si>
-    <t>11.95</t>
-  </si>
-  <si>
-    <t>-10.68</t>
-  </si>
-  <si>
-    <t>-13.13</t>
-  </si>
-  <si>
-    <t>-23.30</t>
-  </si>
-  <si>
-    <t>-0.71</t>
-  </si>
-  <si>
-    <t>-0.85</t>
-  </si>
-  <si>
-    <t>-1.17</t>
-  </si>
-  <si>
-    <t>11.42</t>
-  </si>
-  <si>
-    <t>11.14</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>10.26</t>
-  </si>
-  <si>
-    <t>-8.19</t>
-  </si>
-  <si>
-    <t>-10.13</t>
-  </si>
-  <si>
-    <t>-19.42</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.19</t>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>0.76</t>
   </si>
   <si>
     <t>Date</t>
@@ -1183,9 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:V9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1277,40 +1259,40 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S2" t="s">
         <v>208</v>
@@ -1319,10 +1301,10 @@
         <v>220</v>
       </c>
       <c r="U2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="V2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1342,43 +1324,43 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
         <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S3" t="s">
         <v>209</v>
@@ -1387,10 +1369,10 @@
         <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1410,55 +1392,55 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
         <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S4" t="s">
         <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="U4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1478,43 +1460,43 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S5" t="s">
         <v>211</v>
@@ -1523,10 +1505,10 @@
         <v>221</v>
       </c>
       <c r="U5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1546,43 +1528,43 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
         <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
         <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S6" t="s">
         <v>212</v>
@@ -1591,10 +1573,10 @@
         <v>222</v>
       </c>
       <c r="U6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1614,43 +1596,43 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S7" t="s">
         <v>213</v>
@@ -1659,10 +1641,10 @@
         <v>223</v>
       </c>
       <c r="U7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1682,43 +1664,43 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
         <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S8" t="s">
         <v>214</v>
@@ -1727,10 +1709,10 @@
         <v>224</v>
       </c>
       <c r="U8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1750,43 +1732,43 @@
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
         <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S9" t="s">
         <v>215</v>
@@ -1795,10 +1777,10 @@
         <v>225</v>
       </c>
       <c r="U9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1818,43 +1800,43 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S10" t="s">
         <v>216</v>
@@ -1863,10 +1845,10 @@
         <v>226</v>
       </c>
       <c r="U10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1886,55 +1868,55 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
         <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R11" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
         <v>217</v>
       </c>
       <c r="T11" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="U11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1954,40 +1936,40 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R12" t="s">
         <v>206</v>
@@ -1996,13 +1978,13 @@
         <v>218</v>
       </c>
       <c r="T12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -2022,13 +2004,13 @@
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
         <v>106</v>
@@ -2037,25 +2019,25 @@
         <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R13" t="s">
         <v>207</v>
@@ -2064,13 +2046,13 @@
         <v>219</v>
       </c>
       <c r="T13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2079,21 +2061,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF15046-037D-8E45-A296-6991857EDCF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E20268-6E8D-774B-A830-EBEC0F02D77B}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
         <v>254</v>
-      </c>
-      <c r="B1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/statistiche.xlsx
+++ b/statistiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitozaccardo/Desktop/Conv_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EAB5B-DB41-DA4C-AE2C-2269D8631A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A7E36-3A45-5243-8EBB-0BDC19783A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
   <si>
     <t>Ritorno Conv</t>
   </si>
@@ -59,21 +59,21 @@
     <t>Sharpe Ratio solo Conv</t>
   </si>
   <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>16.95</t>
+  </si>
+  <si>
     <t>6.61</t>
   </si>
   <si>
     <t>5.66</t>
   </si>
   <si>
-    <t>16.95</t>
-  </si>
-  <si>
-    <t>8.07</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
     <t>3.72</t>
   </si>
   <si>
@@ -86,697 +86,685 @@
     <t>-0.23</t>
   </si>
   <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>-0.80</t>
+  </si>
+  <si>
+    <t>-0.97</t>
+  </si>
+  <si>
+    <t>-2.84</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>-1.16</t>
+  </si>
+  <si>
+    <t>-1.27</t>
+  </si>
+  <si>
+    <t>-3.41</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>12.93</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>-2.99</t>
+  </si>
+  <si>
+    <t>-2.61</t>
+  </si>
+  <si>
+    <t>-1.84</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>-2.98</t>
+  </si>
+  <si>
+    <t>-3.11</t>
+  </si>
+  <si>
+    <t>-4.07</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>-16.44</t>
+  </si>
+  <si>
+    <t>-19.31</t>
+  </si>
+  <si>
+    <t>-32.48</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>21.55</t>
+  </si>
+  <si>
+    <t>-18.94</t>
+  </si>
+  <si>
+    <t>-21.81</t>
+  </si>
+  <si>
+    <t>-37.98</t>
+  </si>
+  <si>
+    <t>-1.80</t>
+  </si>
+  <si>
+    <t>-1.51</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>21.32</t>
+  </si>
+  <si>
+    <t>40.93</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>-22.58</t>
+  </si>
+  <si>
+    <t>-24.72</t>
+  </si>
+  <si>
+    <t>-35.46</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>10.95</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>-5.82</t>
+  </si>
+  <si>
+    <t>-5.60</t>
+  </si>
+  <si>
+    <t>-10.69</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>-6.74</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>-6.11</t>
+  </si>
+  <si>
+    <t>-7.21</t>
+  </si>
+  <si>
+    <t>-13.73</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>7.45</t>
+  </si>
+  <si>
+    <t>-1.34</t>
+  </si>
+  <si>
+    <t>-1.90</t>
+  </si>
+  <si>
+    <t>-8.08</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>11.44</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>18.34</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>-1.77</t>
+  </si>
+  <si>
+    <t>-1.83</t>
+  </si>
+  <si>
+    <t>-1.85</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>11.57</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-1.95</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>-6.14</t>
+  </si>
+  <si>
+    <t>-6.47</t>
+  </si>
+  <si>
+    <t>-8.07</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>-5.07</t>
+  </si>
+  <si>
+    <t>-11.05</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>-1.70</t>
+  </si>
+  <si>
+    <t>-1.01</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>-1.36</t>
+  </si>
+  <si>
+    <t>-1.92</t>
+  </si>
+  <si>
+    <t>-4.43</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>-5.49</t>
+  </si>
+  <si>
+    <t>-5.86</t>
+  </si>
+  <si>
+    <t>-7.68</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>-0.62</t>
+  </si>
+  <si>
+    <t>16.17</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>-2.38</t>
+  </si>
+  <si>
+    <t>-2.48</t>
+  </si>
+  <si>
+    <t>-3.07</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>31.77</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>13.66</t>
+  </si>
+  <si>
+    <t>19.74</t>
+  </si>
+  <si>
+    <t>-10.36</t>
+  </si>
+  <si>
+    <t>-11.09</t>
+  </si>
+  <si>
+    <t>-13.65</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>11.77</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>-1.43</t>
+  </si>
+  <si>
+    <t>-1.61</t>
+  </si>
+  <si>
+    <t>-3.45</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>-10.49</t>
+  </si>
+  <si>
+    <t>-12.63</t>
+  </si>
+  <si>
+    <t>-18.90</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>11.72</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>-10.68</t>
+  </si>
+  <si>
+    <t>-13.13</t>
+  </si>
+  <si>
+    <t>-23.30</t>
+  </si>
+  <si>
+    <t>-1.08</t>
+  </si>
+  <si>
+    <t>-0.88</t>
+  </si>
+  <si>
+    <t>-1.58</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>11.14</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>-8.19</t>
+  </si>
+  <si>
+    <t>-10.13</t>
+  </si>
+  <si>
+    <t>-19.42</t>
+  </si>
+  <si>
     <t>0.57</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>5.96</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>-0.80</t>
-  </si>
-  <si>
-    <t>-0.97</t>
-  </si>
-  <si>
-    <t>-2.84</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>4.62</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>14.55</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>5.43</t>
-  </si>
-  <si>
-    <t>-1.16</t>
-  </si>
-  <si>
-    <t>-1.27</t>
-  </si>
-  <si>
-    <t>-3.41</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>12.93</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>6.07</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>-2.99</t>
-  </si>
-  <si>
-    <t>-2.61</t>
-  </si>
-  <si>
-    <t>-1.84</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>7.49</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>-2.98</t>
-  </si>
-  <si>
-    <t>-3.11</t>
-  </si>
-  <si>
-    <t>-4.07</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>10.47</t>
-  </si>
-  <si>
-    <t>-32.48</t>
-  </si>
-  <si>
-    <t>-16.44</t>
-  </si>
-  <si>
-    <t>-19.31</t>
-  </si>
-  <si>
-    <t>21.55</t>
-  </si>
-  <si>
-    <t>-18.94</t>
-  </si>
-  <si>
-    <t>-21.81</t>
-  </si>
-  <si>
-    <t>-37.98</t>
-  </si>
-  <si>
-    <t>-0.54</t>
-  </si>
-  <si>
-    <t>-0.56</t>
-  </si>
-  <si>
-    <t>-1.51</t>
-  </si>
-  <si>
-    <t>9.18</t>
-  </si>
-  <si>
-    <t>9.11</t>
-  </si>
-  <si>
-    <t>40.93</t>
-  </si>
-  <si>
-    <t>16.56</t>
-  </si>
-  <si>
-    <t>21.32</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>-22.58</t>
-  </si>
-  <si>
-    <t>-24.72</t>
-  </si>
-  <si>
-    <t>-35.46</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>10.94</t>
-  </si>
-  <si>
-    <t>10.11</t>
-  </si>
-  <si>
-    <t>-5.82</t>
-  </si>
-  <si>
-    <t>-5.60</t>
-  </si>
-  <si>
-    <t>-10.69</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>6.43</t>
-  </si>
-  <si>
-    <t>-6.74</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-0.61</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>-6.11</t>
-  </si>
-  <si>
-    <t>-7.21</t>
-  </si>
-  <si>
-    <t>-13.73</t>
-  </si>
-  <si>
-    <t>-10.53</t>
-  </si>
-  <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>-0.65</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>13.76</t>
-  </si>
-  <si>
-    <t>10.57</t>
-  </si>
-  <si>
-    <t>11.56</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>-1.34</t>
-  </si>
-  <si>
-    <t>-1.90</t>
-  </si>
-  <si>
-    <t>-8.08</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>18.34</t>
-  </si>
-  <si>
-    <t>11.44</t>
-  </si>
-  <si>
-    <t>12.84</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>-1.77</t>
-  </si>
-  <si>
-    <t>-1.83</t>
-  </si>
-  <si>
-    <t>-1.85</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>12.38</t>
-  </si>
-  <si>
-    <t>11.57</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-1.95</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>9.22</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>-6.14</t>
-  </si>
-  <si>
-    <t>-6.47</t>
-  </si>
-  <si>
-    <t>-8.07</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>4.85</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>6.49</t>
-  </si>
-  <si>
-    <t>6.16</t>
-  </si>
-  <si>
-    <t>7.31</t>
-  </si>
-  <si>
-    <t>-5.07</t>
-  </si>
-  <si>
-    <t>-11.05</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>-1.70</t>
-  </si>
-  <si>
-    <t>-1.01</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>5.89</t>
-  </si>
-  <si>
-    <t>5.97</t>
-  </si>
-  <si>
-    <t>-4.43</t>
-  </si>
-  <si>
-    <t>-1.36</t>
-  </si>
-  <si>
-    <t>-1.92</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>-5.49</t>
-  </si>
-  <si>
-    <t>-5.86</t>
-  </si>
-  <si>
-    <t>-7.68</t>
-  </si>
-  <si>
-    <t>-3.10</t>
-  </si>
-  <si>
-    <t>-4.34</t>
-  </si>
-  <si>
-    <t>-0.62</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>14.45</t>
-  </si>
-  <si>
-    <t>16.17</t>
-  </si>
-  <si>
-    <t>16.12</t>
-  </si>
-  <si>
-    <t>7.33</t>
-  </si>
-  <si>
-    <t>-2.38</t>
-  </si>
-  <si>
-    <t>-2.48</t>
-  </si>
-  <si>
-    <t>-3.07</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>1.97</t>
-  </si>
-  <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>13.66</t>
-  </si>
-  <si>
-    <t>31.77</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>11.02</t>
-  </si>
-  <si>
-    <t>19.74</t>
-  </si>
-  <si>
-    <t>-10.36</t>
-  </si>
-  <si>
-    <t>-11.09</t>
-  </si>
-  <si>
-    <t>-13.65</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
-    <t>14.21</t>
-  </si>
-  <si>
-    <t>11.77</t>
-  </si>
-  <si>
-    <t>7.56</t>
-  </si>
-  <si>
-    <t>-1.43</t>
-  </si>
-  <si>
-    <t>-1.61</t>
-  </si>
-  <si>
-    <t>-3.45</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>11.85</t>
-  </si>
-  <si>
-    <t>11.72</t>
-  </si>
-  <si>
-    <t>-18.90</t>
-  </si>
-  <si>
-    <t>-10.49</t>
-  </si>
-  <si>
-    <t>-12.63</t>
-  </si>
-  <si>
-    <t>11.95</t>
-  </si>
-  <si>
-    <t>-10.68</t>
-  </si>
-  <si>
-    <t>-13.13</t>
-  </si>
-  <si>
-    <t>-23.30</t>
-  </si>
-  <si>
-    <t>-0.93</t>
-  </si>
-  <si>
-    <t>-1.13</t>
-  </si>
-  <si>
-    <t>-1.58</t>
-  </si>
-  <si>
-    <t>11.42</t>
-  </si>
-  <si>
-    <t>11.14</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>10.26</t>
-  </si>
-  <si>
-    <t>-8.19</t>
-  </si>
-  <si>
-    <t>-10.13</t>
-  </si>
-  <si>
-    <t>-19.42</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.90</t>
+    <t>0.53</t>
   </si>
   <si>
     <t>0.76</t>
@@ -1167,11 +1155,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1256,55 +1259,55 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="U2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1324,55 +1327,55 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="U3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="V3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1395,52 +1398,52 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1463,52 +1466,52 @@
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="S5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="V5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1528,55 +1531,55 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="O6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="T6" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="V6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1596,55 +1599,55 @@
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1664,55 +1667,55 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1732,55 +1735,55 @@
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="T9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1800,55 +1803,55 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="V10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1868,55 +1871,55 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="S11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="V11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1933,58 +1936,58 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="Q12" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="V12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -2001,58 +2004,58 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="T13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E20268-6E8D-774B-A830-EBEC0F02D77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA2857-E8C5-C94A-B865-929E2153FC60}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2072,10 +2075,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/statistiche.xlsx
+++ b/statistiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitozaccardo/Desktop/Conv_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A7E36-3A45-5243-8EBB-0BDC19783A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC6A2A-A697-BD4E-86D6-301CF62451D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="250">
   <si>
     <t>Ritorno Conv</t>
   </si>
@@ -738,9 +738,6 @@
   </si>
   <si>
     <t>6.38</t>
-  </si>
-  <si>
-    <t>7.80</t>
   </si>
   <si>
     <t>11.42</t>
@@ -1155,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1442,8 +1439,8 @@
       <c r="U4" t="s">
         <v>227</v>
       </c>
-      <c r="V4" t="s">
-        <v>239</v>
+      <c r="V4">
+        <v>7.04</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1511,7 +1508,7 @@
         <v>228</v>
       </c>
       <c r="V5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1579,7 +1576,7 @@
         <v>229</v>
       </c>
       <c r="V6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1647,7 +1644,7 @@
         <v>230</v>
       </c>
       <c r="V7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1715,7 +1712,7 @@
         <v>231</v>
       </c>
       <c r="V8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1783,7 +1780,7 @@
         <v>232</v>
       </c>
       <c r="V9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1851,7 +1848,7 @@
         <v>233</v>
       </c>
       <c r="V10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -1919,7 +1916,7 @@
         <v>234</v>
       </c>
       <c r="V11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1987,7 +1984,7 @@
         <v>235</v>
       </c>
       <c r="V12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -2055,7 +2052,7 @@
         <v>236</v>
       </c>
       <c r="V13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA2857-E8C5-C94A-B865-929E2153FC60}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2075,10 +2072,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
